--- a/sputnik/personal/uch/uch314.xlsx
+++ b/sputnik/personal/uch/uch314.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -37,13 +34,19 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №314</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +61,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,12 +184,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +503,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,9 +518,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -516,11 +531,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>9680.93</v>
@@ -528,11 +543,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43302</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -540,11 +555,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>9543.49</v>
@@ -552,11 +567,11 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43683</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6">
@@ -594,9 +609,6 @@
       <c r="D12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch314.xlsx
+++ b/sputnik/personal/uch/uch314.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №314</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,6 +196,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,7 +507,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,16 +583,28 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10737.5</v>
+      </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="14">
+        <v>44027</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>10737.5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>

--- a/sputnik/personal/uch/uch314.xlsx
+++ b/sputnik/personal/uch/uch314.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,9 +610,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8">
+        <v>11450.47</v>
+      </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch314.xlsx
+++ b/sputnik/personal/uch/uch314.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -186,7 +186,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,6 +199,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,10 +509,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -538,7 +540,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -550,7 +552,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>43302</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -562,7 +564,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -574,7 +576,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43683</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -586,7 +588,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>43952</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -598,7 +600,7 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>44027</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -610,7 +612,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>44317</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -622,16 +624,34 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="13">
+        <v>44368</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>11450.47</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
